--- a/static/uploads/TestDuLieuCanNhap.xlsx
+++ b/static/uploads/TestDuLieuCanNhap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77061982-D2C1-4C3C-8FD9-CD677F84556A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656DB451-6E0C-4C08-A644-AF12459CA3FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,13 +87,13 @@
     <t>23_Bưu điện Tỉnh Bắc Giang</t>
   </si>
   <si>
-    <t>24_Bưu điện Tỉnh Hà Giang</t>
-  </si>
-  <si>
     <t>230000_hangtt</t>
   </si>
   <si>
-    <t>240000_hangtt</t>
+    <t>24_Bưu điện Tỉnh Lạng Sơn</t>
+  </si>
+  <si>
+    <t>240000_dungnt</t>
   </si>
 </sst>
 </file>
@@ -413,8 +413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -537,7 +537,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
@@ -545,7 +545,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -553,7 +553,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
@@ -561,7 +561,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
@@ -569,7 +569,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
@@ -577,7 +577,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
         <v>16</v>
@@ -585,7 +585,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
         <v>16</v>
@@ -593,7 +593,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
         <v>16</v>
@@ -601,7 +601,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
         <v>16</v>
@@ -609,7 +609,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
         <v>16</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B25" t="s">
         <v>16</v>
@@ -625,7 +625,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
         <v>16</v>
@@ -633,7 +633,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
         <v>16</v>
@@ -644,7 +644,7 @@
         <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -652,7 +652,7 @@
         <v>19</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -660,7 +660,7 @@
         <v>19</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -668,7 +668,7 @@
         <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -676,7 +676,7 @@
         <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -684,7 +684,7 @@
         <v>19</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -692,7 +692,7 @@
         <v>19</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -700,7 +700,7 @@
         <v>19</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -708,7 +708,7 @@
         <v>19</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -716,7 +716,7 @@
         <v>19</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -724,7 +724,7 @@
         <v>19</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -732,7 +732,7 @@
         <v>19</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -740,7 +740,7 @@
         <v>19</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
